--- a/teaching/traditional_assets/database/data/malawi/malawi_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/malawi/malawi_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,6 +590,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.159</v>
+      </c>
+      <c r="E2">
+        <v>0.11</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -597,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0008291311422540511</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0005664271922881786</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>42.02</v>
+        <v>33.6</v>
       </c>
       <c r="L2">
-        <v>0.2242262540021345</v>
+        <v>0.2459736456808199</v>
       </c>
       <c r="M2">
-        <v>13.36</v>
+        <v>6.98</v>
       </c>
       <c r="N2">
-        <v>0.02223331669162922</v>
+        <v>0.01338960291578746</v>
       </c>
       <c r="O2">
-        <v>0.3179438362684436</v>
+        <v>0.2077380952380952</v>
       </c>
       <c r="P2">
-        <v>13.36</v>
+        <v>6.98</v>
       </c>
       <c r="Q2">
-        <v>0.02223331669162922</v>
+        <v>0.01338960291578746</v>
       </c>
       <c r="R2">
-        <v>0.3179438362684436</v>
+        <v>0.2077380952380952</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>92.90000000000001</v>
+        <v>51.40000000000001</v>
       </c>
       <c r="V2">
-        <v>0.1546014311865535</v>
+        <v>0.09859965470938041</v>
       </c>
       <c r="W2">
-        <v>0.1954545454545455</v>
+        <v>0.3110145568328685</v>
       </c>
       <c r="X2">
-        <v>0.06603053975424369</v>
+        <v>0.0797775747302297</v>
       </c>
       <c r="Y2">
-        <v>0.1294240057003018</v>
+        <v>0.2312369821026388</v>
       </c>
       <c r="Z2">
-        <v>1.172261838683116</v>
+        <v>1.137954015328224</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06599023640238061</v>
+        <v>0.07923966412932001</v>
       </c>
       <c r="AC2">
-        <v>-0.06772318485743292</v>
+        <v>-0.07923966412932001</v>
       </c>
       <c r="AD2">
-        <v>24.526</v>
+        <v>51.1</v>
       </c>
       <c r="AE2">
-        <v>1.141895880292046</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>25.66789588029205</v>
+        <v>51.1</v>
       </c>
       <c r="AG2">
-        <v>-67.23210411970796</v>
+        <v>-0.3000000000000043</v>
       </c>
       <c r="AH2">
-        <v>0.04096586507074405</v>
+        <v>0.08927323549965061</v>
       </c>
       <c r="AI2">
-        <v>0.09227483207241886</v>
+        <v>0.2193133047210301</v>
       </c>
       <c r="AJ2">
-        <v>-0.125981166636992</v>
+        <v>-0.0005758157389635398</v>
       </c>
       <c r="AK2">
-        <v>-0.3628912812997506</v>
+        <v>-0.001651982378854649</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>335.972602739726</v>
-      </c>
-      <c r="AP2">
-        <v>-920.9877276672323</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NBS Bank Plc (MAL:NBS)</t>
+          <t>National Bank of Malawi plc (MAL:NBM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,82 +725,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.42</v>
+        <v>23.1</v>
       </c>
       <c r="L3">
-        <v>0.1055555555555556</v>
+        <v>0.257238307349666</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>5.57</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01419469928644241</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2411255411255411</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>5.57</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01419469928644241</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.2411255411255411</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>20.9</v>
+        <v>35.6</v>
       </c>
       <c r="V3">
-        <v>0.3928571428571428</v>
+        <v>0.09072375127420999</v>
       </c>
       <c r="W3">
-        <v>0.1988372093023256</v>
+        <v>0.191701244813278</v>
       </c>
       <c r="X3">
-        <v>0.06588557261737532</v>
+        <v>0.07653263110929406</v>
       </c>
       <c r="Y3">
-        <v>0.1329516366849503</v>
+        <v>0.115168613703984</v>
       </c>
       <c r="Z3">
-        <v>-6.218809980806141</v>
+        <v>0.9852973447443493</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06588497825805023</v>
+        <v>0.07654141338629493</v>
       </c>
       <c r="AC3">
-        <v>-0.06588497825805023</v>
+        <v>-0.07654141338629493</v>
       </c>
       <c r="AD3">
-        <v>0.026</v>
+        <v>24.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.026</v>
+        <v>24.5</v>
       </c>
       <c r="AG3">
-        <v>-20.874</v>
+        <v>-11.1</v>
       </c>
       <c r="AH3">
-        <v>0.0004884830721827677</v>
+        <v>0.05876709042935956</v>
       </c>
       <c r="AI3">
-        <v>0.001254462993341696</v>
+        <v>0.14</v>
       </c>
       <c r="AJ3">
-        <v>-0.6457340840190556</v>
+        <v>-0.02911093627065304</v>
       </c>
       <c r="AK3">
-        <v>119.9655172413797</v>
+        <v>-0.07962697274031565</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -817,7 +820,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Standard Bank Limited (MAL:STANDARD)</t>
+          <t>FDH Bank Plc (MAL:FDHB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -825,6 +828,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.159</v>
+      </c>
+      <c r="E4">
+        <v>0.11</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -832,34 +841,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.002161045564094703</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.001466423775635691</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.1</v>
+        <v>10.5</v>
       </c>
       <c r="L4">
-        <v>0.2378303198887343</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="M4">
-        <v>3.52</v>
+        <v>1.41</v>
       </c>
       <c r="N4">
-        <v>0.01518550474547023</v>
+        <v>0.01093871217998448</v>
       </c>
       <c r="O4">
-        <v>0.2058479532163743</v>
+        <v>0.1342857142857143</v>
       </c>
       <c r="P4">
-        <v>3.52</v>
+        <v>1.41</v>
       </c>
       <c r="Q4">
-        <v>0.01518550474547023</v>
+        <v>0.01093871217998448</v>
       </c>
       <c r="R4">
-        <v>0.2058479532163743</v>
+        <v>0.1342857142857143</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -868,182 +877,60 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>23.3</v>
+        <v>15.8</v>
       </c>
       <c r="V4">
-        <v>0.1005176876617774</v>
+        <v>0.1225756400310318</v>
       </c>
       <c r="W4">
-        <v>0.1653771760154739</v>
+        <v>0.4303278688524591</v>
       </c>
       <c r="X4">
-        <v>0.06603053975424369</v>
+        <v>0.08302251835116532</v>
       </c>
       <c r="Y4">
-        <v>0.09934663626123019</v>
+        <v>0.3473053505012937</v>
       </c>
       <c r="Z4">
-        <v>1.181751471740214</v>
+        <v>1.619377162629758</v>
       </c>
       <c r="AA4">
-        <v>-0.00173294845505232</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06599023640238061</v>
+        <v>0.08193791487234511</v>
       </c>
       <c r="AC4">
-        <v>-0.06772318485743292</v>
+        <v>-0.08193791487234511</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="AE4">
-        <v>1.141895880292046</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.141895880292046</v>
+        <v>26.6</v>
       </c>
       <c r="AG4">
-        <v>-22.15810411970795</v>
+        <v>10.8</v>
       </c>
       <c r="AH4">
-        <v>0.004902063134571815</v>
+        <v>0.1710610932475884</v>
       </c>
       <c r="AI4">
-        <v>0.01016447044394563</v>
+        <v>0.4586206896551724</v>
       </c>
       <c r="AJ4">
-        <v>-0.1056950187683882</v>
+        <v>0.07730851825340014</v>
       </c>
       <c r="AK4">
-        <v>-0.2488503181636801</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-303.5356728727117</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>National Bank of Malawi plc (MAL:NBM)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>21.5</v>
-      </c>
-      <c r="L5">
-        <v>0.2587244283995186</v>
-      </c>
-      <c r="M5">
-        <v>9.84</v>
-      </c>
-      <c r="N5">
-        <v>0.03114909781576448</v>
-      </c>
-      <c r="O5">
-        <v>0.4576744186046511</v>
-      </c>
-      <c r="P5">
-        <v>9.84</v>
-      </c>
-      <c r="Q5">
-        <v>0.03114909781576448</v>
-      </c>
-      <c r="R5">
-        <v>0.4576744186046511</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>48.7</v>
-      </c>
-      <c r="V5">
-        <v>0.1541627097182653</v>
-      </c>
-      <c r="W5">
-        <v>0.1954545454545455</v>
-      </c>
-      <c r="X5">
-        <v>0.06840326847483337</v>
-      </c>
-      <c r="Y5">
-        <v>0.1270512769797121</v>
-      </c>
-      <c r="Z5">
-        <v>0.7972752566439603</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.06813448527719133</v>
-      </c>
-      <c r="AC5">
-        <v>-0.06813448527719133</v>
-      </c>
-      <c r="AD5">
-        <v>24.5</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>24.5</v>
-      </c>
-      <c r="AG5">
-        <v>-24.2</v>
-      </c>
-      <c r="AH5">
-        <v>0.07197414806110458</v>
-      </c>
-      <c r="AI5">
-        <v>0.1688490696071675</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.08296194720603361</v>
-      </c>
-      <c r="AK5">
-        <v>-0.2510373443983403</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
         <v>0</v>
       </c>
     </row>
